--- a/data/trans_orig/P6904-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEC3EB3-B5FE-4BD1-98AA-211FA20BAA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9386F3-933D-4667-B9A0-4B006AB98D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3AD7BE5-3D14-4E1C-93F9-2BB27A7E192B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F8B1423-9A1C-4EB6-A360-45D528F9B046}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>43,26%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>56,74%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>52,2%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>47,99%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>46,53%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,1102 +254,1102 @@
     <t>56,0%</t>
   </si>
   <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>55,23%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>46,57%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>57,58%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>53,43%</t>
   </si>
   <si>
-    <t>53,44%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>42,42%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>39,88%</t>
   </si>
   <si>
     <t>35,07%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>67,09%</t>
+    <t>55,76%</t>
   </si>
   <si>
     <t>62,71%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>62,21%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>32,91%</t>
+    <t>44,24%</t>
   </si>
   <si>
     <t>37,29%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FFBD4E-E8DC-4895-B50A-BF33C753F08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFD1C30-9658-48B7-AD48-C0A6BF1B3E53}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FA9515-1EBA-4BB3-A251-E250F6685DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A2DFE-9863-40DE-8C4A-8B44440D8817}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3136,10 +3136,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3154,13 @@
         <v>22500</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3169,13 +3169,13 @@
         <v>11065</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -3184,13 +3184,13 @@
         <v>33565</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3258,13 @@
         <v>53415</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3273,13 +3273,13 @@
         <v>33912</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3288,13 +3288,13 @@
         <v>87327</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3309,13 @@
         <v>37470</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3416,10 +3416,10 @@
         <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3467,10 +3467,10 @@
         <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3887,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71D1067-31BB-4A60-94EC-E2C00CF3418A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AAA72F-759E-47DA-A233-C79390F2DB44}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4166,13 +4166,13 @@
         <v>21713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4181,13 +4181,13 @@
         <v>18830</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4196,13 +4196,13 @@
         <v>40543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4217,13 @@
         <v>24911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4232,13 +4232,13 @@
         <v>4955</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4247,13 +4247,13 @@
         <v>29866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4321,13 @@
         <v>64100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4336,13 +4336,13 @@
         <v>37372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4351,13 +4351,13 @@
         <v>101472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4372,13 @@
         <v>32884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4387,13 +4387,13 @@
         <v>18180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4402,13 +4402,13 @@
         <v>51063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4476,13 @@
         <v>64381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4491,13 +4491,13 @@
         <v>46133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -4506,13 +4506,13 @@
         <v>110515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4527,13 @@
         <v>45554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4542,13 +4542,13 @@
         <v>18614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4557,13 +4557,13 @@
         <v>64167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4631,13 @@
         <v>52221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4646,13 +4646,13 @@
         <v>40362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4661,13 +4661,13 @@
         <v>92583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4682,13 @@
         <v>36189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4697,13 +4697,13 @@
         <v>25721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -4712,13 +4712,13 @@
         <v>61910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4786,13 @@
         <v>208440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -4801,13 +4801,13 @@
         <v>145362</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -4816,13 +4816,13 @@
         <v>353802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4837,13 @@
         <v>141561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -4852,13 +4852,13 @@
         <v>70936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -4867,13 +4867,13 @@
         <v>212497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA35521-B412-40D6-BDAB-087CC0231380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89F3F5B-EA86-4D4F-92B3-F851E8FC4E7F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5074,13 @@
         <v>7504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5089,13 +5089,13 @@
         <v>6340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5104,13 +5104,13 @@
         <v>13844</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5125,13 @@
         <v>6709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5140,13 +5140,13 @@
         <v>4951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5155,7 +5155,7 @@
         <v>11659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>351</v>
@@ -5387,10 +5387,10 @@
         <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5399,13 +5399,13 @@
         <v>67767</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>159</v>
@@ -5414,13 +5414,13 @@
         <v>142576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5435,13 @@
         <v>41640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5450,13 +5450,13 @@
         <v>41465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -5465,13 +5465,13 @@
         <v>83106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5539,13 @@
         <v>22161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5554,13 +5554,13 @@
         <v>45749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -5569,13 +5569,13 @@
         <v>67911</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5590,13 @@
         <v>35876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -5605,13 +5605,13 @@
         <v>34029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -5620,13 +5620,13 @@
         <v>69905</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5694,13 @@
         <v>64102</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5709,13 +5709,13 @@
         <v>76746</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -5724,13 +5724,13 @@
         <v>140847</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5745,13 @@
         <v>39904</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -5760,13 +5760,13 @@
         <v>36170</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -5852,10 +5852,10 @@
         <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -5903,10 +5903,10 @@
         <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>

--- a/data/trans_orig/P6904-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9386F3-933D-4667-B9A0-4B006AB98D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{125E64B3-96A2-4515-A3FF-D9ADB4D6E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F8B1423-9A1C-4EB6-A360-45D528F9B046}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{706BA3F0-87A8-44A3-8735-4D9A7340A73E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>43,26%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,202 +107,202 @@
     <t>56,74%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>52,2%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>47,99%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
   </si>
   <si>
     <t>46,53%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
   </si>
   <si>
     <t>52,01%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>56,0%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>58,1%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
   </si>
   <si>
     <t>44,0%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
   </si>
   <si>
     <t>36,92%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
   </si>
   <si>
     <t>41,9%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,1024 +311,1030 @@
     <t>54,76%</t>
   </si>
   <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
     <t>45,72%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
   </si>
   <si>
     <t>44,24%</t>
@@ -1761,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFD1C30-9658-48B7-AD48-C0A6BF1B3E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700F9FDF-B830-40A2-8DBB-D3C1A2DBA5AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A2DFE-9863-40DE-8C4A-8B44440D8817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121E7EFA-FEB3-4DEC-801E-D82CAB45CA5C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3136,10 +3142,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3160,13 @@
         <v>22500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3169,13 +3175,13 @@
         <v>11065</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -3184,13 +3190,13 @@
         <v>33565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3264,13 @@
         <v>53415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3273,13 +3279,13 @@
         <v>33912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3288,13 +3294,13 @@
         <v>87327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3315,13 @@
         <v>37470</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3324,13 +3330,13 @@
         <v>27419</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -3339,13 +3345,13 @@
         <v>64889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3419,13 @@
         <v>45176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3428,13 +3434,13 @@
         <v>20350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3443,13 +3449,13 @@
         <v>65527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3470,13 @@
         <v>34381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3479,13 +3485,13 @@
         <v>32629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -3494,13 +3500,13 @@
         <v>67009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3574,13 @@
         <v>35639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3583,13 +3589,13 @@
         <v>34019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -3598,13 +3604,13 @@
         <v>69658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3625,13 @@
         <v>42793</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3634,13 +3640,13 @@
         <v>30077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -3649,13 +3655,13 @@
         <v>72871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3729,13 @@
         <v>178441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -3738,13 +3744,13 @@
         <v>110383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>269</v>
@@ -3753,13 +3759,13 @@
         <v>288825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3780,13 @@
         <v>147014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>97</v>
@@ -3789,13 +3795,13 @@
         <v>103278</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>239</v>
@@ -3804,13 +3810,13 @@
         <v>250291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AAA72F-759E-47DA-A233-C79390F2DB44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D733FB-ACDC-42E2-AB40-14C90534AFCC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,10 +4017,10 @@
         <v>6024</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>132</v>
@@ -4026,13 +4032,13 @@
         <v>2664</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4041,13 +4047,13 @@
         <v>8688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4068,13 @@
         <v>2025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4077,13 +4083,13 @@
         <v>3466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4092,7 +4098,7 @@
         <v>5491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>246</v>
@@ -4509,10 +4515,10 @@
         <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4533,13 @@
         <v>45554</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4542,13 +4548,13 @@
         <v>18614</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4557,13 +4563,13 @@
         <v>64167</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4637,13 @@
         <v>52221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4646,13 +4652,13 @@
         <v>40362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4661,13 +4667,13 @@
         <v>92583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4688,13 @@
         <v>36189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4697,13 +4703,13 @@
         <v>25721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -4712,13 +4718,13 @@
         <v>61910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4792,13 @@
         <v>208440</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -4801,13 +4807,13 @@
         <v>145362</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -4816,13 +4822,13 @@
         <v>353802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4843,13 @@
         <v>141561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -4852,13 +4858,13 @@
         <v>70936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -4867,13 +4873,13 @@
         <v>212497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89F3F5B-EA86-4D4F-92B3-F851E8FC4E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABAB480-43FA-4360-953C-9B0968AAE93C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5080,13 @@
         <v>7504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5089,13 +5095,13 @@
         <v>6340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5104,13 +5110,13 @@
         <v>13844</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5131,13 @@
         <v>6709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5140,13 +5146,13 @@
         <v>4951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5155,13 +5161,13 @@
         <v>11659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5235,13 @@
         <v>49229</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -5244,13 +5250,13 @@
         <v>29913</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -5259,13 +5265,13 @@
         <v>79142</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5286,13 @@
         <v>11083</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5295,13 +5301,13 @@
         <v>18081</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5310,13 +5316,13 @@
         <v>29164</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5390,13 @@
         <v>74810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5399,13 +5405,13 @@
         <v>67767</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>159</v>
@@ -5414,13 +5420,13 @@
         <v>142576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5441,13 @@
         <v>41640</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5450,13 +5456,13 @@
         <v>41465</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -5465,10 +5471,10 @@
         <v>83106</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>384</v>
@@ -5855,7 +5861,7 @@
         <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -5864,13 +5870,13 @@
         <v>226516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>506</v>
@@ -5879,13 +5885,13 @@
         <v>444321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5906,13 @@
         <v>135212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -5915,13 +5921,13 @@
         <v>134695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>306</v>
@@ -5930,13 +5936,13 @@
         <v>269907</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6904-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125E64B3-96A2-4515-A3FF-D9ADB4D6E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AFA48BE-5166-407E-A5FC-DAB8D00058E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{706BA3F0-87A8-44A3-8735-4D9A7340A73E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98D91321-6DFD-468D-B2ED-9E0F165B78ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,1291 +71,1285 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>21,64%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>42,21%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700F9FDF-B830-40A2-8DBB-D3C1A2DBA5AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88E7C7F-9BED-4A2B-B7C6-6F62A0610449}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2830,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121E7EFA-FEB3-4DEC-801E-D82CAB45CA5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28F6DB2-E9DA-4766-AF02-EEB524C26FFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,10 +3261,10 @@
         <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3279,13 +3273,13 @@
         <v>33912</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3294,13 +3288,13 @@
         <v>87327</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3309,13 @@
         <v>37470</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -3330,13 +3324,13 @@
         <v>27419</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -3345,13 +3339,13 @@
         <v>64889</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3413,13 @@
         <v>45176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3434,13 +3428,13 @@
         <v>20350</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3449,13 +3443,13 @@
         <v>65527</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3464,13 @@
         <v>34381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3485,13 +3479,13 @@
         <v>32629</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -3500,13 +3494,13 @@
         <v>67009</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3568,13 @@
         <v>35639</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3589,13 +3583,13 @@
         <v>34019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -3604,13 +3598,13 @@
         <v>69658</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3619,13 @@
         <v>42793</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3640,13 +3634,13 @@
         <v>30077</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -3655,13 +3649,13 @@
         <v>72871</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3723,13 @@
         <v>178441</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -3744,13 +3738,13 @@
         <v>110383</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>269</v>
@@ -3759,13 +3753,13 @@
         <v>288825</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3774,13 @@
         <v>147014</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>97</v>
@@ -3795,13 +3789,13 @@
         <v>103278</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>239</v>
@@ -3810,13 +3804,13 @@
         <v>250291</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D733FB-ACDC-42E2-AB40-14C90534AFCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B57DE60-0771-4308-9793-D9B7AE39F352}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,10 +4011,10 @@
         <v>6024</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>132</v>
@@ -4032,13 +4026,13 @@
         <v>2664</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4047,13 +4041,13 @@
         <v>8688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4062,13 @@
         <v>2025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4083,13 +4077,13 @@
         <v>3466</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4098,7 +4092,7 @@
         <v>5491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>246</v>
@@ -4172,13 +4166,13 @@
         <v>21713</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -4187,13 +4181,13 @@
         <v>18830</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4202,13 +4196,13 @@
         <v>40543</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4217,13 @@
         <v>24911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4238,13 +4232,13 @@
         <v>4955</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4253,13 +4247,13 @@
         <v>29866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4321,13 @@
         <v>64100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4342,13 +4336,13 @@
         <v>37372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4357,13 +4351,13 @@
         <v>101472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4372,13 @@
         <v>32884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4393,13 +4387,13 @@
         <v>18180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -4408,13 +4402,13 @@
         <v>51063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4476,13 @@
         <v>64381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4497,13 +4491,13 @@
         <v>46133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -4512,13 +4506,13 @@
         <v>110515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4527,13 @@
         <v>45554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4548,13 +4542,13 @@
         <v>18614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4563,13 +4557,13 @@
         <v>64167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4631,13 @@
         <v>52221</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4652,13 +4646,13 @@
         <v>40362</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4667,13 +4661,13 @@
         <v>92583</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,10 +4682,10 @@
         <v>36189</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>309</v>
@@ -4825,10 +4819,10 @@
         <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4837,13 @@
         <v>141561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -4858,13 +4852,13 @@
         <v>70936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -4873,13 +4867,13 @@
         <v>212497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABAB480-43FA-4360-953C-9B0968AAE93C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDAE0E3-46A3-4184-AC8E-2D83EA412DCC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5074,13 @@
         <v>7504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5095,13 +5089,13 @@
         <v>6340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5110,13 +5104,13 @@
         <v>13844</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5125,13 @@
         <v>6709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5146,13 +5140,13 @@
         <v>4951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5161,13 +5155,13 @@
         <v>11659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5229,13 @@
         <v>49229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -5250,13 +5244,13 @@
         <v>29913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -5265,13 +5259,13 @@
         <v>79142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5280,13 @@
         <v>11083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5301,13 +5295,13 @@
         <v>18081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5316,13 +5310,13 @@
         <v>29164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5384,13 @@
         <v>74810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5405,13 +5399,13 @@
         <v>67767</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>159</v>
@@ -5420,13 +5414,13 @@
         <v>142576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5435,13 @@
         <v>41640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5456,13 +5450,13 @@
         <v>41465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -5471,13 +5465,13 @@
         <v>83106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5539,13 @@
         <v>22161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5560,13 +5554,13 @@
         <v>45749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -5575,13 +5569,13 @@
         <v>67911</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5590,13 @@
         <v>35876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -5611,13 +5605,13 @@
         <v>34029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -5626,13 +5620,13 @@
         <v>69905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>64102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5715,13 +5709,13 @@
         <v>76746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -5730,13 +5724,13 @@
         <v>140847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5745,13 @@
         <v>39904</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -5766,13 +5760,13 @@
         <v>36170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -5858,10 +5852,10 @@
         <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>295</v>
@@ -5870,13 +5864,13 @@
         <v>226516</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>506</v>
@@ -5885,13 +5879,13 @@
         <v>444321</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5900,13 @@
         <v>135212</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -5921,13 +5915,13 @@
         <v>134695</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>306</v>
@@ -5936,13 +5930,13 @@
         <v>269907</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6904-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AFA48BE-5166-407E-A5FC-DAB8D00058E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55ECCC87-C098-4B98-9F9B-20E9EE836FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98D91321-6DFD-468D-B2ED-9E0F165B78ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{33CCEFC0-3E32-48C5-8A9C-FA230FD16782}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>60,56%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>56,0%</t>
@@ -422,934 +365,766 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
   </si>
   <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88E7C7F-9BED-4A2B-B7C6-6F62A0610449}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F264E-C0C7-46FB-B72C-DA114FDBC1C6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>6519</v>
+        <v>40066</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1894,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>3468</v>
+        <v>20892</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1909,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>9987</v>
+        <v>60958</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>8552</v>
+        <v>39265</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1945,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>2588</v>
+        <v>11349</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1960,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>11139</v>
+        <v>50614</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1981,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>33547</v>
+        <v>70059</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2049,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>17425</v>
+        <v>22442</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2064,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>50971</v>
+        <v>92500</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2085,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
-        <v>30714</v>
+        <v>75922</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2100,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>8761</v>
+        <v>30355</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2115,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="N8" s="7">
-        <v>39475</v>
+        <v>106277</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2136,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2166,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2189,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>70059</v>
+        <v>61564</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2204,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>22442</v>
+        <v>29353</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2219,10 +1994,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>92500</v>
+        <v>90917</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2240,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>75922</v>
+        <v>48380</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2255,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>30355</v>
+        <v>17180</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2270,10 +2045,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>106277</v>
+        <v>65560</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2291,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>61564</v>
+        <v>75045</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2359,10 +2134,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>29353</v>
+        <v>41230</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2374,10 +2149,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>90917</v>
+        <v>116275</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2395,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>48380</v>
+        <v>62004</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2410,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>17180</v>
+        <v>47321</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2425,10 +2200,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="N14" s="7">
-        <v>65560</v>
+        <v>109325</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2446,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2493,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>75045</v>
+        <v>246734</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>111</v>
+      </c>
+      <c r="I16" s="7">
+        <v>113916</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>39</v>
-      </c>
-      <c r="I16" s="7">
-        <v>41230</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>345</v>
+      </c>
+      <c r="N16" s="7">
+        <v>360650</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>114</v>
-      </c>
-      <c r="N16" s="7">
-        <v>116275</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7">
-        <v>62004</v>
+        <v>225571</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>104</v>
+      </c>
+      <c r="I17" s="7">
+        <v>106205</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>46</v>
-      </c>
-      <c r="I17" s="7">
-        <v>47321</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>320</v>
+      </c>
+      <c r="N17" s="7">
+        <v>331777</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>109</v>
-      </c>
-      <c r="N17" s="7">
-        <v>109325</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2616,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2631,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2647,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>234</v>
-      </c>
-      <c r="D19" s="7">
-        <v>246734</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>111</v>
-      </c>
-      <c r="I19" s="7">
-        <v>113916</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>345</v>
-      </c>
-      <c r="N19" s="7">
-        <v>360650</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>216</v>
-      </c>
-      <c r="D20" s="7">
-        <v>225571</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>104</v>
-      </c>
-      <c r="I20" s="7">
-        <v>106205</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>320</v>
-      </c>
-      <c r="N20" s="7">
-        <v>331777</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2824,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28F6DB2-E9DA-4766-AF02-EEB524C26FFB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DE3DEF-8CC6-432D-9D02-EC807F0682BF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>12268</v>
+        <v>44211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>5266</v>
+        <v>22101</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>17534</v>
+        <v>66313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>9869</v>
+        <v>32369</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>2088</v>
+        <v>13153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>11957</v>
+        <v>45521</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>76580</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>111834</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>53415</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="7">
         <v>31</v>
       </c>
-      <c r="D7" s="7">
-        <v>31944</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
       <c r="I7" s="7">
-        <v>16835</v>
+        <v>33912</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>48779</v>
+        <v>87327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>22500</v>
+        <v>37470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>11065</v>
+        <v>27419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N8" s="7">
-        <v>33565</v>
+        <v>64889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>54444</v>
+        <v>90885</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>27900</v>
+        <v>61331</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="N9" s="7">
-        <v>82344</v>
+        <v>152216</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3252,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>53415</v>
+        <v>45176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>33912</v>
+        <v>20350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>87327</v>
+        <v>65527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>37470</v>
+        <v>34381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>27419</v>
+        <v>32629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>64889</v>
+        <v>67009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>90885</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3369,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>61331</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>152216</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3407,49 +3026,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>45176</v>
+        <v>35639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>20350</v>
+        <v>34019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>65527</v>
+        <v>69658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>34381</v>
+        <v>42793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>32629</v>
+        <v>30077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N14" s="7">
-        <v>67009</v>
+        <v>72871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>78432</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3524,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3539,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>142529</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3556,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="D16" s="7">
-        <v>35639</v>
+        <v>178441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>34019</v>
+        <v>110383</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="N16" s="7">
-        <v>69658</v>
+        <v>288825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7">
-        <v>42793</v>
+        <v>147014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7">
-        <v>30077</v>
+        <v>103278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="N17" s="7">
-        <v>72871</v>
+        <v>250291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="D18" s="7">
-        <v>78432</v>
+        <v>325455</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3679,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>213661</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3694,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>137</v>
+        <v>508</v>
       </c>
       <c r="N18" s="7">
-        <v>142529</v>
+        <v>539116</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>170</v>
-      </c>
-      <c r="D19" s="7">
-        <v>178441</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>99</v>
-      </c>
-      <c r="I19" s="7">
-        <v>110383</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>269</v>
-      </c>
-      <c r="N19" s="7">
-        <v>288825</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>142</v>
-      </c>
-      <c r="D20" s="7">
-        <v>147014</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>97</v>
-      </c>
-      <c r="I20" s="7">
-        <v>103278</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>239</v>
-      </c>
-      <c r="N20" s="7">
-        <v>250291</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>312</v>
-      </c>
-      <c r="D21" s="7">
-        <v>325455</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>196</v>
-      </c>
-      <c r="I21" s="7">
-        <v>213661</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>508</v>
-      </c>
-      <c r="N21" s="7">
-        <v>539116</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3887,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B57DE60-0771-4308-9793-D9B7AE39F352}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38246F08-EE1B-4BE6-BB64-8672DBDAF3EA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3904,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>6024</v>
+        <v>27737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>2664</v>
+        <v>21494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>8688</v>
+        <v>49231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>2025</v>
+        <v>26936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>3466</v>
+        <v>8421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>5491</v>
+        <v>35357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>21713</v>
+        <v>64100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>18830</v>
+        <v>37372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>40543</v>
+        <v>101472</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>24911</v>
+        <v>32884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>4955</v>
+        <v>18180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N8" s="7">
-        <v>29866</v>
+        <v>51063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4315,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>64100</v>
+        <v>64381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>37372</v>
+        <v>46133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>101472</v>
+        <v>110515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>32884</v>
+        <v>45554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>18180</v>
+        <v>18614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>51063</v>
+        <v>64167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4470,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>64381</v>
+        <v>52221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>46133</v>
+        <v>40362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>110515</v>
+        <v>92583</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>45554</v>
+        <v>36189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>18614</v>
+        <v>25721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>64167</v>
+        <v>61910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4587,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4602,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4619,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>52221</v>
+        <v>208440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>40362</v>
+        <v>145362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="N16" s="7">
-        <v>92583</v>
+        <v>353802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7">
-        <v>36189</v>
+        <v>141561</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>25721</v>
+        <v>70936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="N17" s="7">
-        <v>61910</v>
+        <v>212497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4742,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4757,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4773,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>193</v>
-      </c>
-      <c r="D19" s="7">
-        <v>208440</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>138</v>
-      </c>
-      <c r="I19" s="7">
-        <v>145362</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>331</v>
-      </c>
-      <c r="N19" s="7">
-        <v>353802</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>129</v>
-      </c>
-      <c r="D20" s="7">
-        <v>141561</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="7">
-        <v>69</v>
-      </c>
-      <c r="I20" s="7">
-        <v>70936</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M20" s="7">
-        <v>198</v>
-      </c>
-      <c r="N20" s="7">
-        <v>212497</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4950,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDAE0E3-46A3-4184-AC8E-2D83EA412DCC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C633F7-FB1C-4530-8E16-377D322D7316}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4967,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>7504</v>
+        <v>54103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>6340</v>
+        <v>33340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="N4" s="7">
-        <v>13844</v>
+        <v>87444</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>6709</v>
+        <v>17112</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>4951</v>
+        <v>21341</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>11659</v>
+        <v>38453</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5185,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5200,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5223,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7">
-        <v>49229</v>
+        <v>72070</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>29913</v>
+        <v>61594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="N7" s="7">
-        <v>79142</v>
+        <v>133663</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>11083</v>
+        <v>39913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I8" s="7">
-        <v>18081</v>
+        <v>37136</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="N8" s="7">
-        <v>29164</v>
+        <v>77049</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5340,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5355,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5378,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>74810</v>
+        <v>20429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>67767</v>
+        <v>65988</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>142576</v>
+        <v>86417</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>41640</v>
+        <v>34848</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>41465</v>
+        <v>30920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>83106</v>
+        <v>65767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5495,25 +4802,25 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5533,49 +4840,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>22161</v>
+        <v>62172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I13" s="7">
-        <v>45749</v>
+        <v>70337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="N13" s="7">
-        <v>67911</v>
+        <v>132509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>35876</v>
+        <v>38858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>34029</v>
+        <v>33559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>69905</v>
+        <v>72417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5650,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5665,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5682,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D16" s="7">
-        <v>64102</v>
+        <v>208774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="I16" s="7">
-        <v>76746</v>
+        <v>231260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>165</v>
+        <v>506</v>
       </c>
       <c r="N16" s="7">
-        <v>140847</v>
+        <v>440034</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>39904</v>
+        <v>130731</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="I17" s="7">
-        <v>36170</v>
+        <v>122955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="N17" s="7">
-        <v>76074</v>
+        <v>253686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5805,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5836,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>211</v>
-      </c>
-      <c r="D19" s="7">
-        <v>217806</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H19" s="7">
-        <v>295</v>
-      </c>
-      <c r="I19" s="7">
-        <v>226516</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" s="7">
-        <v>506</v>
-      </c>
-      <c r="N19" s="7">
-        <v>444321</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>127</v>
-      </c>
-      <c r="D20" s="7">
-        <v>135212</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="7">
-        <v>179</v>
-      </c>
-      <c r="I20" s="7">
-        <v>134695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>306</v>
-      </c>
-      <c r="N20" s="7">
-        <v>269907</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
